--- a/trace-simulator-data_cache/resultTable.xlsx
+++ b/trace-simulator-data_cache/resultTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamigasai/Documents/CSC656/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamigasai/Documents/CSC656/trace-simulator-data_cache/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1080" windowWidth="25440" windowHeight="14580" xr2:uid="{E8066E68-34CE-0949-BEEE-FF1463543D8D}"/>
+    <workbookView minimized="1" xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14580" xr2:uid="{E8066E68-34CE-0949-BEEE-FF1463543D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,15 +117,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10EFB74-8651-9E47-961E-E4620D2A0ADE}">
   <dimension ref="C7:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,126 +455,126 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.1348067</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
+        <v>0.13480700000000001</v>
+      </c>
+      <c r="E9" s="2">
         <v>5197601</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>0.15584400000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>5022552</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.82735000000000003</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
+        <v>8.2735000000000003E-2</v>
+      </c>
+      <c r="E10" s="2">
         <v>3278241</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>9.4855999999999996E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>3190232</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>0.10399700000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>4051441</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.11242199999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>3615112</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
-        <v>9.5592999999999997E-2</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="1">
+        <v>9.5593999999999998E-2</v>
+      </c>
+      <c r="E12" s="1">
         <v>3814721</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0.100602</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>3300632</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>2630561</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>6.4401E-2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>2275432</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>5.3482000000000002E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>2216481</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>5.9136000000000001E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>2111672</v>
       </c>
     </row>
